--- a/biology/Botanique/Sterculia_setigera/Sterculia_setigera.xlsx
+++ b/biology/Botanique/Sterculia_setigera/Sterculia_setigera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sterculia setigera, le Platane du Sénégal[1], est une espèce d'arbres monoïque de la famille des Sterculiaceae, atteignant 10 à 18 m de haut, à fût court de 2-4 m. Écorce gris violacé, se détachant en plaques irrégulières minces. Feuilles digitées avec trois à cinq lobes caractéristiques. Fruits groupés de trois à cinq contenant de cinq à douze graines noires avec arille jaune.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sterculia setigera, le Platane du Sénégal, est une espèce d'arbres monoïque de la famille des Sterculiaceae, atteignant 10 à 18 m de haut, à fût court de 2-4 m. Écorce gris violacé, se détachant en plaques irrégulières minces. Feuilles digitées avec trois à cinq lobes caractéristiques. Fruits groupés de trois à cinq contenant de cinq à douze graines noires avec arille jaune.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Sterculia setigera a été décrite en 1826 par le botaniste français Alire Raffeneau-Delile[2] (1778-1850)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Sterculia setigera a été décrite en 1826 par le botaniste français Alire Raffeneau-Delile (1778-1850).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des savanes d'Afrique tropicale (Afrique de l'Ouest, centrale, de l'Est et australe)[1] où la pluviométrie annuelle est supérieure à 500 mm[réf. nécessaire].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des savanes d'Afrique tropicale (Afrique de l'Ouest, centrale, de l'Est et australe) où la pluviométrie annuelle est supérieure à 500 mm[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Raffeneau-Delile, Centurie de plantes d'Afrique,  (publication), Inconnu, 1826</t>
         </is>
